--- a/workTime_ChenLi_20161128-20161215.xlsx
+++ b/workTime_ChenLi_20161128-20161215.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29220" windowHeight="18580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,11 +106,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Review the problem "number-of-words-in-a-string", "unique-substrings-in-wraparound-string", "convex-polygon"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Review the problem "convex-polygon"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review this week's contest questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-edit the problem description and test cases for the problem "Convex Polygon"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review and finish the problem "number-of-words-in-a-string", "unique-substrings-in-wraparound-string"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review and write my solution for the problem "Convex Polygon"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +185,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,15 +242,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -235,6 +275,9 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -251,6 +294,9 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -579,17 +625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1"/>
     <col min="2" max="2" width="41.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="127" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.33203125" style="1"/>
   </cols>
@@ -630,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1">
@@ -644,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1">
@@ -652,10 +698,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1">
@@ -663,37 +712,40 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -704,7 +756,7 @@
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -715,7 +767,7 @@
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -726,7 +778,7 @@
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -737,7 +789,7 @@
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -748,7 +800,7 @@
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -759,7 +811,7 @@
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -770,7 +822,7 @@
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -781,7 +833,7 @@
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -792,11 +844,33 @@
     </row>
     <row r="18" spans="1:3" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
-        <f>SUM(C2:C17)</f>
-        <v>3</v>
+      <c r="C20" s="2">
+        <f>SUM(C2:C19)</f>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/workTime_ChenLi_20161128-20161215.xlsx
+++ b/workTime_ChenLi_20161128-20161215.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29220" windowHeight="18580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33300" windowHeight="20120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>Review and write my solution for the problem "Convex Polygon"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit the problem "Convex Polygon" and "Count the Repetitions"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,8 +216,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -257,7 +267,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -278,6 +288,7 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -297,6 +308,7 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -628,7 +640,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -748,10 +760,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
@@ -870,7 +885,7 @@
       </c>
       <c r="C20" s="2">
         <f>SUM(C2:C19)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/workTime_ChenLi_20161128-20161215.xlsx
+++ b/workTime_ChenLi_20161128-20161215.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33300" windowHeight="20120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34520" windowHeight="19420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -142,11 +142,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit the problem "Convex Polygon" and "Count the Repetitions"</t>
+    <t>12:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Review and edit this week's contest problem </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="C20" s="2">
         <f>SUM(C2:C19)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/workTime_ChenLi_20161128-20161215.xlsx
+++ b/workTime_ChenLi_20161128-20161215.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,7 +134,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:30-21:00</t>
+    <t xml:space="preserve">Review and edit this week's contest problem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,7 +150,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Review and edit this week's contest problem </t>
+    <t>18:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contest monitoring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -746,13 +754,13 @@
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1">
@@ -760,29 +768,29 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -793,7 +801,7 @@
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -804,7 +812,7 @@
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -815,7 +823,7 @@
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -826,7 +834,7 @@
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -837,7 +845,7 @@
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -848,7 +856,7 @@
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -859,7 +867,7 @@
     </row>
     <row r="18" spans="1:3" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -870,7 +878,7 @@
     </row>
     <row r="19" spans="1:3" ht="28" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -881,11 +889,22 @@
     </row>
     <row r="20" spans="1:3" ht="28" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
-        <f>SUM(C2:C19)</f>
-        <v>12.5</v>
+      <c r="C21" s="2">
+        <f>SUM(C2:C20)</f>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/workTime_ChenLi_20161128-20161215.xlsx
+++ b/workTime_ChenLi_20161128-20161215.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,7 +154,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Contest monitoring</t>
+    <t>Contest monitoring and editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:30-0:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the problem of the contest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -789,19 +797,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -812,7 +820,7 @@
     </row>
     <row r="13" spans="1:4" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -823,7 +831,7 @@
     </row>
     <row r="14" spans="1:4" ht="28" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -834,7 +842,7 @@
     </row>
     <row r="15" spans="1:4" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -845,7 +853,7 @@
     </row>
     <row r="16" spans="1:4" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -856,7 +864,7 @@
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -867,7 +875,7 @@
     </row>
     <row r="18" spans="1:3" ht="28" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -878,7 +886,7 @@
     </row>
     <row r="19" spans="1:3" ht="28" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -889,7 +897,7 @@
     </row>
     <row r="20" spans="1:3" ht="28" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -900,11 +908,22 @@
     </row>
     <row r="21" spans="1:3" ht="28" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
-        <f>SUM(C2:C20)</f>
-        <v>13.5</v>
+      <c r="C22" s="2">
+        <f>SUM(C2:C21)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
